--- a/data/input/Data_Prob_Seek.xlsx
+++ b/data/input/Data_Prob_Seek.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14705BC2-E6D1-2B42-B706-D8EDBF6CE124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,13 +90,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D5" totalsRowShown="0">
-  <autoFilter ref="A1:D5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D5" totalsRowShown="0">
+  <autoFilter ref="A1:D5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="2" name="id_gender"/>
-    <tableColumn id="3" name="id_state"/>
-    <tableColumn id="4" name="unit"/>
-    <tableColumn id="5" name="value"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_gender"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="id_state"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="unit"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -363,21 +364,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -391,7 +392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -402,10 +403,10 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -416,10 +417,10 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -430,10 +431,10 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -444,7 +445,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
